--- a/data/trans_orig/LAWTONB_2R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_2R3-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5330</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1875</v>
+        <v>2442</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10285</v>
+        <v>10026</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.150636444711312</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05297759585734517</v>
+        <v>0.06901159753337364</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2906414161167494</v>
+        <v>0.2833197081029289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -765,19 +765,19 @@
         <v>6910</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2846</v>
+        <v>2473</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13338</v>
+        <v>13114</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1761275147069666</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07255025314208657</v>
+        <v>0.06304778717225679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3399927428624654</v>
+        <v>0.3342834776143989</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>12240</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6856</v>
+        <v>6853</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20069</v>
+        <v>20154</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1640388461597108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09187939396621743</v>
+        <v>0.09184702989944753</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2689661985676582</v>
+        <v>0.2701009525400335</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>30056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25101</v>
+        <v>25360</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>33511</v>
+        <v>32944</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.849363555288688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7093585838832505</v>
+        <v>0.7166802918970712</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9470224041426548</v>
+        <v>0.9309884024666264</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -836,19 +836,19 @@
         <v>32321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25893</v>
+        <v>26117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36385</v>
+        <v>36758</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8238724852930335</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6600072571375342</v>
+        <v>0.6657165223856003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9274497468579062</v>
+        <v>0.9369522128277432</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -857,19 +857,19 @@
         <v>62377</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>54548</v>
+        <v>54463</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67761</v>
+        <v>67764</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8359611538402892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7310338014323415</v>
+        <v>0.729899047459965</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9081206060337825</v>
+        <v>0.9081529701005521</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>7603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3011</v>
+        <v>3637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14903</v>
+        <v>14447</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.114072574997937</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04517186748035016</v>
+        <v>0.05455820223131146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2235818925794213</v>
+        <v>0.2167479247971355</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -982,19 +982,19 @@
         <v>13308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7205</v>
+        <v>7222</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21365</v>
+        <v>21764</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.135969433875285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07361482912718745</v>
+        <v>0.07378372173501753</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2182858662437116</v>
+        <v>0.2223655561529329</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1003,19 +1003,19 @@
         <v>20911</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12873</v>
+        <v>12851</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30867</v>
+        <v>30417</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1270985522264418</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07824064710244936</v>
+        <v>0.0781089747772004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1876091417502972</v>
+        <v>0.1848761292618012</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>59051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51751</v>
+        <v>52207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63643</v>
+        <v>63017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8859274250020629</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7764181074205788</v>
+        <v>0.783252075202864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9548281325196499</v>
+        <v>0.9454417977686881</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>83</v>
@@ -1053,19 +1053,19 @@
         <v>84567</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76510</v>
+        <v>76111</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90670</v>
+        <v>90653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.864030566124715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7817141337562883</v>
+        <v>0.7776344438470666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9263851708728124</v>
+        <v>0.9262162782649824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>141</v>
@@ -1074,19 +1074,19 @@
         <v>143618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>133662</v>
+        <v>134112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>151656</v>
+        <v>151678</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8729014477735583</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8123908582497027</v>
+        <v>0.8151238707381973</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9217593528975503</v>
+        <v>0.9218910252227991</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1879</v>
+        <v>1859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10013</v>
+        <v>10121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09512196039879309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03689615018336671</v>
+        <v>0.03649019501300492</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1965734030487216</v>
+        <v>0.1986907069112478</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16816</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10033</v>
+        <v>9960</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24909</v>
+        <v>25649</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2013366411935859</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1201278470937277</v>
+        <v>0.1192556339743154</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2982342542571424</v>
+        <v>0.3070972273775586</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1220,19 +1220,19 @@
         <v>21661</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14268</v>
+        <v>14035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31895</v>
+        <v>31405</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1610978527305656</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1061147450535871</v>
+        <v>0.104379438887857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2372037429627222</v>
+        <v>0.2335595778965485</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>46094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40927</v>
+        <v>40819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>49061</v>
+        <v>49081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9048780396012069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8034265969512789</v>
+        <v>0.801309293088752</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9631038498166333</v>
+        <v>0.9635098049869949</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>67</v>
@@ -1270,19 +1270,19 @@
         <v>66705</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58612</v>
+        <v>57872</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73488</v>
+        <v>73561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.798663358806414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7017657457428577</v>
+        <v>0.6929027726224419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8798721529062726</v>
+        <v>0.8807443660256848</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -1291,19 +1291,19 @@
         <v>112800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>102566</v>
+        <v>103056</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120193</v>
+        <v>120426</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8389021472694345</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7627962570372777</v>
+        <v>0.7664404221034514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8938852549464128</v>
+        <v>0.8956205611121426</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>3492</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>895</v>
+        <v>874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7797</v>
+        <v>8068</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06335847410851368</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01624430427120305</v>
+        <v>0.0158484410675627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1414420327226771</v>
+        <v>0.1463602555528736</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1416,19 +1416,19 @@
         <v>17802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11147</v>
+        <v>11234</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26149</v>
+        <v>25746</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2395515899489978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1499984353244328</v>
+        <v>0.1511773230963769</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3518807083724319</v>
+        <v>0.3464566734984307</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1437,19 +1437,19 @@
         <v>21294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14276</v>
+        <v>14249</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>30400</v>
+        <v>30267</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.16451703214081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1102938074565779</v>
+        <v>0.1100826973763853</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2348615890904734</v>
+        <v>0.2338393793007557</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>51630</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47325</v>
+        <v>47054</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54227</v>
+        <v>54248</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9366415258914863</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8585579672773229</v>
+        <v>0.8536397444471265</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.983755695728797</v>
+        <v>0.9841515589324373</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -1487,19 +1487,19 @@
         <v>56511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48164</v>
+        <v>48567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63166</v>
+        <v>63079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7604484100510022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6481192916275677</v>
+        <v>0.6535433265015693</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.850001564675567</v>
+        <v>0.8488226769036232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -1508,19 +1508,19 @@
         <v>108142</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99036</v>
+        <v>99169</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>115160</v>
+        <v>115187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8354829678591901</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7651384109095276</v>
+        <v>0.7661606206992445</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8897061925434223</v>
+        <v>0.8899173026236148</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7771</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3783</v>
+        <v>4230</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12449</v>
+        <v>12747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2648039726542898</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1289179784290667</v>
+        <v>0.1441403402894066</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4241941331158923</v>
+        <v>0.4343667858434763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12624</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6769</v>
+        <v>7154</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18590</v>
+        <v>19485</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3060734188561587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1641108247147755</v>
+        <v>0.1734384462563273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4507073915865089</v>
+        <v>0.4724194399134887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1654,19 +1654,19 @@
         <v>20396</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13221</v>
+        <v>12940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27889</v>
+        <v>28765</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2889167667785065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1872813785873914</v>
+        <v>0.1833097476130423</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3950653932168806</v>
+        <v>0.4074764030563343</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>21576</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16898</v>
+        <v>16600</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25564</v>
+        <v>25117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7351960273457102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5758058668841076</v>
+        <v>0.5656332141565238</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8710820215709334</v>
+        <v>0.8558596597105934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1704,19 +1704,19 @@
         <v>28622</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22656</v>
+        <v>21761</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34477</v>
+        <v>34092</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6939265811438413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.549292608413491</v>
+        <v>0.5275805600865112</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8358891752852239</v>
+        <v>0.8265615537436727</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -1725,19 +1725,19 @@
         <v>50197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42704</v>
+        <v>41828</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>57372</v>
+        <v>57653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7110832332214935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6049346067831193</v>
+        <v>0.5925235969436653</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8127186214126082</v>
+        <v>0.8166902523869577</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>8500</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4553</v>
+        <v>3750</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14095</v>
+        <v>13717</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1801058534770299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09646357299567138</v>
+        <v>0.07944584972887542</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2986530525948361</v>
+        <v>0.2906387036727694</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -1850,19 +1850,19 @@
         <v>11735</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6103</v>
+        <v>6360</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19470</v>
+        <v>19447</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1669089103957608</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08679711089443648</v>
+        <v>0.09046348696691159</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2769211257315721</v>
+        <v>0.2765998519676405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -1871,19 +1871,19 @@
         <v>20236</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12800</v>
+        <v>13299</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>30246</v>
+        <v>29504</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1722095076414563</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1089331463228591</v>
+        <v>0.1131734534291901</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2573954403229276</v>
+        <v>0.251081268221206</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>38696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33101</v>
+        <v>33479</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42643</v>
+        <v>43446</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8198941465229701</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7013469474051639</v>
+        <v>0.7093612963272308</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9035364270043287</v>
+        <v>0.9205541502711246</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>57</v>
@@ -1921,19 +1921,19 @@
         <v>58574</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50839</v>
+        <v>50862</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>64206</v>
+        <v>63949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8330910896042393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.723078874268428</v>
+        <v>0.7234001480323593</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9132028891055644</v>
+        <v>0.9095365130330885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>97</v>
@@ -1942,19 +1942,19 @@
         <v>97270</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>87260</v>
+        <v>88002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>104706</v>
+        <v>104207</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8277904923585436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7426045596770726</v>
+        <v>0.7489187317787941</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8910668536771411</v>
+        <v>0.8868265465708098</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>8724</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3726</v>
+        <v>4344</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15237</v>
+        <v>15813</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08235854183846246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03517679895531541</v>
+        <v>0.04100701039755746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1438435558663519</v>
+        <v>0.1492777268463853</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2067,19 +2067,19 @@
         <v>15023</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9089</v>
+        <v>9088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23676</v>
+        <v>23902</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1282704134153468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07759948659963156</v>
+        <v>0.07759234594868025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2021484314044886</v>
+        <v>0.204081152568905</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2088,19 +2088,19 @@
         <v>23747</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14818</v>
+        <v>15704</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33073</v>
+        <v>34714</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1064664738002036</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06643590471595788</v>
+        <v>0.07040519069926088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1482776283068469</v>
+        <v>0.1556329142490663</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>97204</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90691</v>
+        <v>90115</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>102202</v>
+        <v>101584</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9176414581615375</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8561564441336481</v>
+        <v>0.8507222731536148</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9648232010446847</v>
+        <v>0.9589929896024425</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>102</v>
@@ -2138,19 +2138,19 @@
         <v>102098</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>93445</v>
+        <v>93219</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>108032</v>
+        <v>108033</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8717295865846533</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7978515685955111</v>
+        <v>0.7959188474310949</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9224005134003683</v>
+        <v>0.9224076540513196</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>201</v>
@@ -2159,19 +2159,19 @@
         <v>199302</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>189976</v>
+        <v>188335</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>208231</v>
+        <v>207345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8935335261997964</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.851722371693153</v>
+        <v>0.8443670857509343</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9335640952840421</v>
+        <v>0.9295948093007391</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>18386</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11527</v>
+        <v>11825</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27178</v>
+        <v>27363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.164316705377553</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.103014296059872</v>
+        <v>0.1056788390251295</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2428958494602064</v>
+        <v>0.2445439263143548</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -2284,19 +2284,19 @@
         <v>31627</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21566</v>
+        <v>21882</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43007</v>
+        <v>42918</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2064056952231513</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1407455941391727</v>
+        <v>0.1428109237342712</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2806761953668978</v>
+        <v>0.2800959136428809</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>47</v>
@@ -2305,19 +2305,19 @@
         <v>50012</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>38290</v>
+        <v>37843</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64904</v>
+        <v>63702</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1886420848330133</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1444245088108309</v>
+        <v>0.1427394078043152</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2448129037918918</v>
+        <v>0.2402767170499981</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>93507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84715</v>
+        <v>84530</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100366</v>
+        <v>100068</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8356832946224471</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7571041505397939</v>
+        <v>0.7554560736856447</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.896985703940128</v>
+        <v>0.8943211609748701</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>117</v>
@@ -2355,19 +2355,19 @@
         <v>121598</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>110218</v>
+        <v>110307</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>131659</v>
+        <v>131343</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7935943047768487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7193238046331021</v>
+        <v>0.7199040863571186</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8592544058608272</v>
+        <v>0.8571890762657287</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>213</v>
@@ -2376,19 +2376,19 @@
         <v>215106</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>200214</v>
+        <v>201416</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>226828</v>
+        <v>227275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8113579151669866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7551870962081082</v>
+        <v>0.7597232829500017</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8555754911891691</v>
+        <v>0.8572605921956847</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>64653</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51422</v>
+        <v>52804</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80947</v>
+        <v>81300</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1286718283285648</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.102339657825441</v>
+        <v>0.1050894556205817</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.161099927688192</v>
+        <v>0.1618023642772639</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>116</v>
@@ -2501,19 +2501,19 @@
         <v>125845</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>106092</v>
+        <v>105823</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147072</v>
+        <v>147711</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1859291040717413</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1567462371868074</v>
+        <v>0.1563484564930017</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.217291941809795</v>
+        <v>0.2182355184579468</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>185</v>
@@ -2522,19 +2522,19 @@
         <v>190498</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>164539</v>
+        <v>164992</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>218670</v>
+        <v>215710</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1615335818302416</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1395212927983874</v>
+        <v>0.139905424332552</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1854226919725903</v>
+        <v>0.1829125183753606</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>437813</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>421519</v>
+        <v>421166</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>451044</v>
+        <v>449662</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8713281716714352</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8389000723118077</v>
+        <v>0.8381976357227359</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.897660342174559</v>
+        <v>0.8949105443794181</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>545</v>
@@ -2572,19 +2572,19 @@
         <v>550997</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>529770</v>
+        <v>529131</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>570750</v>
+        <v>571019</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8140708959282587</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7827080581902053</v>
+        <v>0.7817644815420532</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8432537628131926</v>
+        <v>0.8436515435069986</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>999</v>
@@ -2593,19 +2593,19 @@
         <v>988810</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>960638</v>
+        <v>963598</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1014769</v>
+        <v>1014316</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8384664181697584</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8145773080274097</v>
+        <v>0.8170874816246394</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8604787072016128</v>
+        <v>0.860094575667448</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>10564</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5638</v>
+        <v>5689</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17175</v>
+        <v>17412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2385636316209769</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1273302269029193</v>
+        <v>0.1284724414965662</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3878655307273493</v>
+        <v>0.3932088461915189</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2962,19 +2962,19 @@
         <v>23187</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15991</v>
+        <v>15795</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30224</v>
+        <v>30372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4742283266017993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3270629731229223</v>
+        <v>0.3230438813023712</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6181494218366294</v>
+        <v>0.6211758712681998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2983,19 +2983,19 @@
         <v>33751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24998</v>
+        <v>23670</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43776</v>
+        <v>43014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3622301865511036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2682952582179345</v>
+        <v>0.2540334039876168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4698274550391184</v>
+        <v>0.4616469986936236</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>33717</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27106</v>
+        <v>26869</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38643</v>
+        <v>38592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7614363683790231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6121344692726507</v>
+        <v>0.6067911538084817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8726697730970806</v>
+        <v>0.871527558503434</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -3033,19 +3033,19 @@
         <v>25707</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18670</v>
+        <v>18522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32903</v>
+        <v>33099</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5257716733982007</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3818505781633705</v>
+        <v>0.3788241287318002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6729370268770773</v>
+        <v>0.6769561186976288</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -3054,19 +3054,19 @@
         <v>59424</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49399</v>
+        <v>50161</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68177</v>
+        <v>69505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6377698134488964</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5301725449608816</v>
+        <v>0.5383530013063763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7317047417820655</v>
+        <v>0.7459665960123832</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>16082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8717</v>
+        <v>8547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25495</v>
+        <v>25645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2030460077854339</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1100617145869253</v>
+        <v>0.1079149977837166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3218975802391549</v>
+        <v>0.3237920980942484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>29</v>
@@ -3179,19 +3179,19 @@
         <v>32824</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23487</v>
+        <v>22928</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43360</v>
+        <v>43841</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3215143872842245</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2300539536657731</v>
+        <v>0.2245806107900764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4247094969334823</v>
+        <v>0.4294182170786547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -3200,19 +3200,19 @@
         <v>48906</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36580</v>
+        <v>38001</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62811</v>
+        <v>63344</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2697590930801421</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2017671679259464</v>
+        <v>0.2096054582868633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3464553525849048</v>
+        <v>0.3493970274251541</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>63121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53708</v>
+        <v>53558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70486</v>
+        <v>70656</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7969539922145661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6781024197608448</v>
+        <v>0.6762079019057513</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8899382854130747</v>
+        <v>0.8920850022162833</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -3250,19 +3250,19 @@
         <v>69269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58733</v>
+        <v>58252</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>78606</v>
+        <v>79165</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6784856127157755</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5752905030665179</v>
+        <v>0.5705817829213453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7699460463342271</v>
+        <v>0.7754193892099236</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -3271,19 +3271,19 @@
         <v>132390</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>118485</v>
+        <v>117952</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>144716</v>
+        <v>143295</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.730240906919858</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6535446474150952</v>
+        <v>0.6506029725748459</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7982328320740536</v>
+        <v>0.7903945417131367</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>13356</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7229</v>
+        <v>7309</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20508</v>
+        <v>20939</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2396123284985685</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1296834435648993</v>
+        <v>0.131124315094147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3679050366110334</v>
+        <v>0.375634071871251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -3396,19 +3396,19 @@
         <v>19363</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11753</v>
+        <v>12396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27526</v>
+        <v>27701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2421367024105543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1469708164454503</v>
+        <v>0.1550149667775987</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3442091601595743</v>
+        <v>0.3463952692343283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -3417,19 +3417,19 @@
         <v>32720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23568</v>
+        <v>23541</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42988</v>
+        <v>43080</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2410998298590973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1736629663625472</v>
+        <v>0.1734646487014979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3167641074269159</v>
+        <v>0.3174448346937476</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>42386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35234</v>
+        <v>34803</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48513</v>
+        <v>48433</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7603876715014315</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6320949633889666</v>
+        <v>0.6243659281287489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8703165564351009</v>
+        <v>0.8688756849058529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -3467,19 +3467,19 @@
         <v>60605</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>52442</v>
+        <v>52267</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68215</v>
+        <v>67572</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7578632975894457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6557908398404262</v>
+        <v>0.6536047307656717</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8530291835545497</v>
+        <v>0.8449850332224013</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -3488,19 +3488,19 @@
         <v>102990</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92722</v>
+        <v>92630</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112142</v>
+        <v>112169</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7589001701409027</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6832358925730826</v>
+        <v>0.6825551653062523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8263370336374527</v>
+        <v>0.8265353512985021</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>16173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9609</v>
+        <v>9731</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23443</v>
+        <v>23901</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.252593007907628</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1500792998852551</v>
+        <v>0.1519741862841172</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3661336136964512</v>
+        <v>0.3732828025404137</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -3613,19 +3613,19 @@
         <v>23576</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16309</v>
+        <v>16380</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33594</v>
+        <v>32807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.275508566177972</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1905807597873437</v>
+        <v>0.1914166682614161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3925694317516933</v>
+        <v>0.3833816059299383</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -3634,19 +3634,19 @@
         <v>39749</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30624</v>
+        <v>29870</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52771</v>
+        <v>52116</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2657010092791024</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2047018378874107</v>
+        <v>0.1996643136566204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3527410713518077</v>
+        <v>0.3483666912029499</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>47855</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40585</v>
+        <v>40127</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>54419</v>
+        <v>54297</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7474069920923719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6338663863035489</v>
+        <v>0.6267171974595863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8499207001147449</v>
+        <v>0.8480258137158828</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -3684,19 +3684,19 @@
         <v>61998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51980</v>
+        <v>52767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>69265</v>
+        <v>69194</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.724491433822028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6074305682483067</v>
+        <v>0.6166183940700618</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8094192402126563</v>
+        <v>0.8085833317385839</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -3705,19 +3705,19 @@
         <v>109853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96831</v>
+        <v>97486</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118978</v>
+        <v>119732</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7342989907208977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6472589286481922</v>
+        <v>0.6516333087970502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7952981621125895</v>
+        <v>0.8003356863433796</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>6705</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3039</v>
+        <v>2385</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11957</v>
+        <v>13044</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2121177517543791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09614244432473182</v>
+        <v>0.07544064711585929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3782533166349576</v>
+        <v>0.4126428728713586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3830,19 +3830,19 @@
         <v>14376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8250</v>
+        <v>8140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20893</v>
+        <v>20418</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2883633108693216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1654791973780217</v>
+        <v>0.1632800827084773</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4190659144227245</v>
+        <v>0.4095544203805035</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -3851,19 +3851,19 @@
         <v>21082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14127</v>
+        <v>13972</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30069</v>
+        <v>30236</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2587772203476736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1734045922894809</v>
+        <v>0.1715012994913884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3690973441429156</v>
+        <v>0.3711417565198537</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>24907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19655</v>
+        <v>18568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28573</v>
+        <v>29227</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7878822482456209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6217466833650414</v>
+        <v>0.5873571271286415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9038575556752682</v>
+        <v>0.9245593528841407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>34</v>
@@ -3901,19 +3901,19 @@
         <v>35479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28962</v>
+        <v>29437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41605</v>
+        <v>41715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7116366891306783</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5809340855772759</v>
+        <v>0.5904455796194966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8345208026219784</v>
+        <v>0.8367199172915227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -3922,19 +3922,19 @@
         <v>60385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>51398</v>
+        <v>51231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>67340</v>
+        <v>67495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7412227796523264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6309026558570844</v>
+        <v>0.6288582434801463</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8265954077105192</v>
+        <v>0.8284987005086115</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>14956</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8866</v>
+        <v>8697</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21418</v>
+        <v>22203</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2889731961830297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.17129804534374</v>
+        <v>0.16802994563968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4138281994845413</v>
+        <v>0.4289908904190684</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -4047,19 +4047,19 @@
         <v>19139</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11807</v>
+        <v>11885</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26931</v>
+        <v>27246</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2725902882305039</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1681554435506036</v>
+        <v>0.1692773814265234</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3835648610675075</v>
+        <v>0.3880492366779666</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -4068,19 +4068,19 @@
         <v>34095</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24162</v>
+        <v>24658</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44561</v>
+        <v>44382</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2795422501654843</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1980997585274741</v>
+        <v>0.202169392079037</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3653521381321447</v>
+        <v>0.3638813674836378</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>36800</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30338</v>
+        <v>29553</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42890</v>
+        <v>43059</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7110268038169704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5861718005154588</v>
+        <v>0.5710091095809315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8287019546562635</v>
+        <v>0.83197005436032</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -4118,19 +4118,19 @@
         <v>51073</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43281</v>
+        <v>42966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>58405</v>
+        <v>58327</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7274097117694961</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6164351389324925</v>
+        <v>0.6119507633220334</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8318445564493964</v>
+        <v>0.8307226185734766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>87</v>
@@ -4139,19 +4139,19 @@
         <v>87873</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>77407</v>
+        <v>77586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97806</v>
+        <v>97310</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7204577498345156</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6346478618678554</v>
+        <v>0.6361186325163624</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8019002414725263</v>
+        <v>0.7978306079209629</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>25262</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16762</v>
+        <v>17034</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36848</v>
+        <v>35540</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2250239231742292</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1493143325896211</v>
+        <v>0.1517290050509703</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3282290895598857</v>
+        <v>0.316574809399436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4264,19 +4264,19 @@
         <v>32884</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23664</v>
+        <v>23788</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44581</v>
+        <v>45484</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2316398664624788</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1666917229057937</v>
+        <v>0.1675643997741429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3140381134257704</v>
+        <v>0.320394831629065</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4285,19 +4285,19 @@
         <v>58146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44753</v>
+        <v>44778</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73611</v>
+        <v>73182</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2287183392950744</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1760349606279147</v>
+        <v>0.1761341657385341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2895481265152139</v>
+        <v>0.2878602936659995</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>87001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>75415</v>
+        <v>76723</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>95501</v>
+        <v>95229</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7749760768257707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6717709104401142</v>
+        <v>0.6834251906005641</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8506856674103784</v>
+        <v>0.8482709949490297</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>100</v>
@@ -4335,19 +4335,19 @@
         <v>109078</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97381</v>
+        <v>96478</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>118298</v>
+        <v>118174</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7683601335375212</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6859618865742297</v>
+        <v>0.6796051683709349</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8333082770942064</v>
+        <v>0.8324356002258571</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>178</v>
@@ -4356,19 +4356,19 @@
         <v>196080</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>180615</v>
+        <v>181044</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>209473</v>
+        <v>209448</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7712816607049257</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7104518734847862</v>
+        <v>0.7121397063340005</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8239650393720855</v>
+        <v>0.8238658342614658</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>13302</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6710</v>
+        <v>6694</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23100</v>
+        <v>23331</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1101583267787651</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05556875127422909</v>
+        <v>0.05543668966164337</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1913032193251979</v>
+        <v>0.1932148226154328</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -4481,19 +4481,19 @@
         <v>29103</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18887</v>
+        <v>20372</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39041</v>
+        <v>41012</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1770087654626368</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1148708519045606</v>
+        <v>0.1239019234036794</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2374536740131766</v>
+        <v>0.2494403223512558</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>36</v>
@@ -4502,19 +4502,19 @@
         <v>42405</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>29707</v>
+        <v>31125</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56038</v>
+        <v>57942</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1487015483888842</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1041724358683069</v>
+        <v>0.1091441847267801</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1965083517466054</v>
+        <v>0.2031844176431806</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>107450</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>97652</v>
+        <v>97421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>114042</v>
+        <v>114058</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8898416732212349</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8086967806748024</v>
+        <v>0.806785177384567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9444312487257709</v>
+        <v>0.9445633103383565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -4552,19 +4552,19 @@
         <v>135314</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>125376</v>
+        <v>123405</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>145530</v>
+        <v>144045</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8229912345373632</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7625463259868233</v>
+        <v>0.7505596776487437</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8851291480954394</v>
+        <v>0.8760980765963207</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>221</v>
@@ -4573,19 +4573,19 @@
         <v>242764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229131</v>
+        <v>227227</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>255462</v>
+        <v>254044</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8512984516111158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8034916482533946</v>
+        <v>0.7968155823568194</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8958275641316931</v>
+        <v>0.89085581527322</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>116400</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96337</v>
+        <v>95353</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>138932</v>
+        <v>138893</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2079926793826373</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1721414536845844</v>
+        <v>0.1703829782223399</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2482533458573305</v>
+        <v>0.2481844182131615</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>178</v>
@@ -4698,19 +4698,19 @@
         <v>194454</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>170117</v>
+        <v>171588</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220847</v>
+        <v>219962</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2617229879361923</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2289677460627383</v>
+        <v>0.2309471252751682</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2972471592053033</v>
+        <v>0.2960561611486903</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>280</v>
@@ -4719,19 +4719,19 @@
         <v>310854</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>280961</v>
+        <v>281438</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>346981</v>
+        <v>342188</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2386390075650809</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2156906679844358</v>
+        <v>0.2160563263473659</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2663729468367856</v>
+        <v>0.2626933883316452</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>443237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>420705</v>
+        <v>420744</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>463300</v>
+        <v>464284</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7920073206173627</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7517466541426695</v>
+        <v>0.7518155817868384</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8278585463154157</v>
+        <v>0.8296170217776601</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>516</v>
@@ -4769,19 +4769,19 @@
         <v>548521</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>522128</v>
+        <v>523013</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>572858</v>
+        <v>571387</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7382770120638077</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7027528407946967</v>
+        <v>0.7039438388513096</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7710322539372617</v>
+        <v>0.7690528747248317</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>918</v>
@@ -4790,19 +4790,19 @@
         <v>991758</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>955631</v>
+        <v>960424</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1021651</v>
+        <v>1021174</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7613609924349192</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7336270531632143</v>
+        <v>0.7373066116683548</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7843093320155642</v>
+        <v>0.7839436736526341</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>8205</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3974</v>
+        <v>4025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13431</v>
+        <v>13384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2109380972650027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1021796451883165</v>
+        <v>0.103486697894178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3453136274693465</v>
+        <v>0.3441025318454281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5159,19 +5159,19 @@
         <v>19342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12142</v>
+        <v>11657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27366</v>
+        <v>26958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3916079963469577</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2458245520147844</v>
+        <v>0.2360110771899541</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5540668618497488</v>
+        <v>0.5458017855120125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -5180,19 +5180,19 @@
         <v>27547</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19305</v>
+        <v>19233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36737</v>
+        <v>36746</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3120116971192529</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2186571717050826</v>
+        <v>0.2178486675066503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4161103857071739</v>
+        <v>0.4162058492505887</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>30691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25465</v>
+        <v>25512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34922</v>
+        <v>34871</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7890619027349973</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6546863725306534</v>
+        <v>0.6558974681545722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8978203548116835</v>
+        <v>0.896513302105822</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -5230,19 +5230,19 @@
         <v>30049</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22025</v>
+        <v>22433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37249</v>
+        <v>37734</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6083920036530422</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4459331381502503</v>
+        <v>0.4541982144879875</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7541754479852155</v>
+        <v>0.7639889228100467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>59</v>
@@ -5251,19 +5251,19 @@
         <v>60740</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>51550</v>
+        <v>51541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68982</v>
+        <v>69054</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6879883028807471</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.583889614292826</v>
+        <v>0.5837941507494118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7813428282949171</v>
+        <v>0.7821513324933497</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>8237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3866</v>
+        <v>4222</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14938</v>
+        <v>14679</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09435936332441162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04428095349304523</v>
+        <v>0.04836032392877936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1711209522565362</v>
+        <v>0.1681529769080395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -5376,19 +5376,19 @@
         <v>29258</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19070</v>
+        <v>19717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40303</v>
+        <v>40667</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2539139879506688</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1654950368194734</v>
+        <v>0.1711151256558538</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3497643354803974</v>
+        <v>0.3529304935999227</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -5397,19 +5397,19 @@
         <v>37495</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26038</v>
+        <v>25646</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50419</v>
+        <v>50280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1851400686924237</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.128568728847275</v>
+        <v>0.126631726920277</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2489542843667197</v>
+        <v>0.2482659736163876</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>79058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72357</v>
+        <v>72616</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>83429</v>
+        <v>83073</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9056406366755884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.828879047743464</v>
+        <v>0.8318470230919605</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9557190465069547</v>
+        <v>0.9516396760712205</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>73</v>
@@ -5447,19 +5447,19 @@
         <v>85970</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74925</v>
+        <v>74561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96158</v>
+        <v>95511</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7460860120493312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.650235664519603</v>
+        <v>0.6470695064000783</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8345049631805267</v>
+        <v>0.8288848743441467</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>154</v>
@@ -5468,19 +5468,19 @@
         <v>165028</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152104</v>
+        <v>152243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176485</v>
+        <v>176877</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8148599313075763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7510457156332804</v>
+        <v>0.751734026383612</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8714312711527252</v>
+        <v>0.8733682730797229</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>8219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4208</v>
+        <v>4077</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13553</v>
+        <v>13964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1293397253348684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0662125218393053</v>
+        <v>0.06416121368985234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2132767825965153</v>
+        <v>0.2197405225007653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5593,19 +5593,19 @@
         <v>9126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3804</v>
+        <v>4551</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17393</v>
+        <v>17529</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1142242753563716</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04760604529403083</v>
+        <v>0.05696133151734232</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2176944442919222</v>
+        <v>0.2193905241090394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -5614,19 +5614,19 @@
         <v>17345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10676</v>
+        <v>10677</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27034</v>
+        <v>27040</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1209205018928305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07442748421459032</v>
+        <v>0.07443346503641102</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1884675033637966</v>
+        <v>0.1885096550063271</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>55327</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49993</v>
+        <v>49582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59338</v>
+        <v>59469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8706602746651316</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7867232174034847</v>
+        <v>0.7802594774992347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.933787478160695</v>
+        <v>0.9358387863101478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -5664,19 +5664,19 @@
         <v>70771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62504</v>
+        <v>62368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76093</v>
+        <v>75346</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8857757246436284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7823055557080778</v>
+        <v>0.7806094758909614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9523939547059692</v>
+        <v>0.9430386684826578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -5685,19 +5685,19 @@
         <v>126098</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>116409</v>
+        <v>116403</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132767</v>
+        <v>132766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8790794981071695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8115324966362029</v>
+        <v>0.8114903449936699</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9255725157854094</v>
+        <v>0.925566534963589</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>12225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6919</v>
+        <v>7693</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19234</v>
+        <v>19055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1889091420859722</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1069165916863703</v>
+        <v>0.1188866680045758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.297230311925368</v>
+        <v>0.2944535622417465</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -5810,19 +5810,19 @@
         <v>17608</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10174</v>
+        <v>9746</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26391</v>
+        <v>27669</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1922860669368636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1110993093680362</v>
+        <v>0.1064317000333488</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2881886704960062</v>
+        <v>0.3021497111692428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -5831,19 +5831,19 @@
         <v>29833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20328</v>
+        <v>20005</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>41705</v>
+        <v>42331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1908878144184998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1300676978219796</v>
+        <v>0.128004969777109</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2668504020945525</v>
+        <v>0.2708593242699343</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>52487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45478</v>
+        <v>45657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>57793</v>
+        <v>57019</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8110908579140278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.702769688074632</v>
+        <v>0.7055464377582535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8930834083136296</v>
+        <v>0.8811133319954242</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>63</v>
@@ -5881,19 +5881,19 @@
         <v>73966</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65183</v>
+        <v>63905</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81400</v>
+        <v>81828</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8077139330631363</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7118113295039942</v>
+        <v>0.6978502888307572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8889006906319638</v>
+        <v>0.8935682999666512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -5902,19 +5902,19 @@
         <v>126452</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>114580</v>
+        <v>113954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>135957</v>
+        <v>136280</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8091121855815002</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7331495979054473</v>
+        <v>0.7291406757300657</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8699323021780204</v>
+        <v>0.871995030222891</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>4118</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1608</v>
+        <v>1589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9025</v>
+        <v>8468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09784988998318822</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03821683229714558</v>
+        <v>0.03777153637870494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2144738539286526</v>
+        <v>0.2012412598333008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -6027,19 +6027,19 @@
         <v>18404</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11893</v>
+        <v>11408</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26434</v>
+        <v>26162</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3641966642263159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2353645903918801</v>
+        <v>0.2257490675782178</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5231230813608665</v>
+        <v>0.5177309637115267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -6048,19 +6048,19 @@
         <v>22521</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14886</v>
+        <v>14670</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31904</v>
+        <v>31419</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.243177244563657</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1607400728326462</v>
+        <v>0.1583983855383634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3444919258798353</v>
+        <v>0.3392547493498352</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>37962</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33055</v>
+        <v>33612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40472</v>
+        <v>40491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9021501100168118</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7855261460713476</v>
+        <v>0.7987587401666992</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9617831677028544</v>
+        <v>0.9622284636212951</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -6098,19 +6098,19 @@
         <v>32128</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24098</v>
+        <v>24370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>38639</v>
+        <v>39124</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6358033357736841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4768769186391331</v>
+        <v>0.4822690362884733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7646354096081196</v>
+        <v>0.7742509324217821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -6119,19 +6119,19 @@
         <v>70091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>60708</v>
+        <v>61193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>77726</v>
+        <v>77942</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7568227554363429</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6555080741201649</v>
+        <v>0.6607452506501643</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8392599271673539</v>
+        <v>0.8416016144616366</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>11703</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6431</v>
+        <v>6641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17757</v>
+        <v>17096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2415771188005177</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1327556274078098</v>
+        <v>0.1370712716937637</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3665401392078866</v>
+        <v>0.3528868264502406</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -6244,19 +6244,19 @@
         <v>19924</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12103</v>
+        <v>11632</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28569</v>
+        <v>28291</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2956555298315068</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1796076933958375</v>
+        <v>0.1726054024238026</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.423941392863504</v>
+        <v>0.419819619231932</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -6265,19 +6265,19 @@
         <v>31627</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21880</v>
+        <v>21968</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41985</v>
+        <v>42615</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2730379239363515</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.188891878021485</v>
+        <v>0.1896482829252241</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3624588504491923</v>
+        <v>0.3679002892098069</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>36743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30689</v>
+        <v>31350</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42015</v>
+        <v>41805</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7584228811994823</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6334598607921136</v>
+        <v>0.6471131735497594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8672443725921902</v>
+        <v>0.8629287283062363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -6315,19 +6315,19 @@
         <v>47464</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38819</v>
+        <v>39097</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>55285</v>
+        <v>55756</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7043444701684932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5760586071364959</v>
+        <v>0.5801803807680679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8203923066041622</v>
+        <v>0.8273945975761973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>85</v>
@@ -6336,19 +6336,19 @@
         <v>84207</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>73849</v>
+        <v>73219</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93954</v>
+        <v>93866</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7269620760636485</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6375411495508077</v>
+        <v>0.6320997107901931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8111081219785151</v>
+        <v>0.8103517170747759</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>19517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12559</v>
+        <v>12465</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29063</v>
+        <v>28272</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1739707104881027</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1119522305515992</v>
+        <v>0.1111122392034482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2590632591752011</v>
+        <v>0.2520092118668668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -6461,19 +6461,19 @@
         <v>40877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30460</v>
+        <v>29796</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53739</v>
+        <v>53062</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2768998712862042</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2063329080217446</v>
+        <v>0.2018368868670573</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3640213504361345</v>
+        <v>0.3594357095646034</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>54</v>
@@ -6482,19 +6482,19 @@
         <v>60394</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47253</v>
+        <v>46301</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75242</v>
+        <v>74295</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2324552817530297</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1818748554474497</v>
+        <v>0.1782092788190298</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2896030543335819</v>
+        <v>0.285960487582873</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>92668</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83122</v>
+        <v>83913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>99626</v>
+        <v>99720</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8260292895118974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7409367408247989</v>
+        <v>0.7479907881331329</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8880477694484008</v>
+        <v>0.8888877607965512</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>91</v>
@@ -6532,19 +6532,19 @@
         <v>106748</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>93886</v>
+        <v>94563</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>117165</v>
+        <v>117829</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7231001287137958</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6359786495638654</v>
+        <v>0.6405642904353969</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7936670919782554</v>
+        <v>0.798163113132943</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>180</v>
@@ -6553,19 +6553,19 @@
         <v>199416</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>184568</v>
+        <v>185515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>212557</v>
+        <v>213509</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7675447182469702</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7103969456664184</v>
+        <v>0.7140395124171269</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8181251445525504</v>
+        <v>0.82179072118097</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>16863</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10433</v>
+        <v>10113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25282</v>
+        <v>26362</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1256827767269662</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07776310418594239</v>
+        <v>0.07537426981309232</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1884360638745587</v>
+        <v>0.196482650995729</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -6678,19 +6678,19 @@
         <v>28808</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19484</v>
+        <v>19294</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41683</v>
+        <v>40272</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1634055363981788</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1105185090736425</v>
+        <v>0.1094416630271434</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2364374296448113</v>
+        <v>0.2284342852529199</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>39</v>
@@ -6699,19 +6699,19 @@
         <v>45671</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>32678</v>
+        <v>33401</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59999</v>
+        <v>61257</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1471035450165256</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.105255338165863</v>
+        <v>0.107584382436622</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1932549015245185</v>
+        <v>0.1973075600665269</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>117305</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108886</v>
+        <v>107806</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>123735</v>
+        <v>124055</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8743172232730339</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8115639361254414</v>
+        <v>0.8035173490042717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9222368958140577</v>
+        <v>0.9246257301869076</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>120</v>
@@ -6749,19 +6749,19 @@
         <v>147489</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134614</v>
+        <v>136025</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156813</v>
+        <v>157003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8365944636018212</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7635625703551885</v>
+        <v>0.7715657147470801</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8894814909263575</v>
+        <v>0.8905583369728566</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>244</v>
@@ -6770,19 +6770,19 @@
         <v>264794</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>250466</v>
+        <v>249208</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>277787</v>
+        <v>277064</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8528964549834743</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8067450984754815</v>
+        <v>0.8026924399334731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.894744661834137</v>
+        <v>0.8924156175633779</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>89086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72676</v>
+        <v>74075</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>105269</v>
+        <v>106225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1506539530871139</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1229027977679228</v>
+        <v>0.1252681364379513</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1780213972559931</v>
+        <v>0.1796375517790794</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>145</v>
@@ -6895,19 +6895,19 @@
         <v>183347</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>157659</v>
+        <v>157849</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>208445</v>
+        <v>210046</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2356850902301122</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2026638777498206</v>
+        <v>0.2029084896002077</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2679480684836626</v>
+        <v>0.2700061819504744</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>244</v>
@@ -6916,19 +6916,19 @@
         <v>272433</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>240986</v>
+        <v>241978</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>303218</v>
+        <v>303179</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1989635553064476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1759973014521063</v>
+        <v>0.1767220275867888</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2214469323528347</v>
+        <v>0.2214184270641579</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>502242</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>486059</v>
+        <v>485103</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>518652</v>
+        <v>517253</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8493460469128862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8219786027440068</v>
+        <v>0.8203624482209205</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8770972022320772</v>
+        <v>0.8747318635620488</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>510</v>
@@ -6966,19 +6966,19 @@
         <v>594584</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>569486</v>
+        <v>567885</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>620272</v>
+        <v>620082</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7643149097698878</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7320519315163372</v>
+        <v>0.7299938180495255</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7973361222501791</v>
+        <v>0.7970915103997922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1038</v>
@@ -6987,19 +6987,19 @@
         <v>1096826</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1066041</v>
+        <v>1066080</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1128273</v>
+        <v>1127281</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8010364446935524</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7785530676471646</v>
+        <v>0.7785815729358422</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8240026985478933</v>
+        <v>0.8232779724132113</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>16865</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11595</v>
+        <v>11810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22798</v>
+        <v>23850</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2766730317967295</v>
+        <v>0.2766730317967296</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1902230908936228</v>
+        <v>0.1937479462675429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3740189521656561</v>
+        <v>0.3912659117496951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -7356,19 +7356,19 @@
         <v>25801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20291</v>
+        <v>20119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31175</v>
+        <v>31718</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3952530502428993</v>
+        <v>0.3952530502428994</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3108556921154147</v>
+        <v>0.3082124765633988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4775819318344458</v>
+        <v>0.4859125942935297</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -7377,19 +7377,19 @@
         <v>42665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34959</v>
+        <v>35342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52364</v>
+        <v>51296</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.337992821579972</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2769459357368886</v>
+        <v>0.2799813131584665</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4148296180768519</v>
+        <v>0.4063652193446938</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>44090</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>38157</v>
+        <v>37105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>49360</v>
+        <v>49145</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7233269682032705</v>
+        <v>0.7233269682032704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6259810478343438</v>
+        <v>0.6087340882503048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8097769091063772</v>
+        <v>0.8062520537324571</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -7427,19 +7427,19 @@
         <v>39475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34101</v>
+        <v>33558</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44985</v>
+        <v>45157</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6047469497571007</v>
+        <v>0.6047469497571006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5224180681655541</v>
+        <v>0.5140874057064706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6891443078845855</v>
+        <v>0.6917875234366011</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>142</v>
@@ -7448,19 +7448,19 @@
         <v>83566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>73867</v>
+        <v>74935</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>91272</v>
+        <v>90889</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6620071784200279</v>
+        <v>0.662007178420028</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5851703819231482</v>
+        <v>0.5936347806553061</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7230540642631114</v>
+        <v>0.7200186868415335</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>10299</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5633</v>
+        <v>5603</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16910</v>
+        <v>16848</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1177786607885057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06441641547819894</v>
+        <v>0.06407537541118806</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1933831316898193</v>
+        <v>0.1926726415004292</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -7573,19 +7573,19 @@
         <v>44693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36189</v>
+        <v>37237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53826</v>
+        <v>53882</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3316489925081147</v>
+        <v>0.3316489925081146</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2685425838354549</v>
+        <v>0.2763204817715323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3994244081505653</v>
+        <v>0.3998360913057458</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -7594,19 +7594,19 @@
         <v>54992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43915</v>
+        <v>44782</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65790</v>
+        <v>66997</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2474842574888475</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1976367941472567</v>
+        <v>0.201536899122986</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2960823786604125</v>
+        <v>0.301510543398019</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>77145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70534</v>
+        <v>70596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>81811</v>
+        <v>81841</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8822213392114944</v>
+        <v>0.8822213392114943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8066168683101806</v>
+        <v>0.8073273584995704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9355835845218011</v>
+        <v>0.9359246245888119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>151</v>
@@ -7644,19 +7644,19 @@
         <v>90066</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>80933</v>
+        <v>80877</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98570</v>
+        <v>97522</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6683510074918855</v>
+        <v>0.6683510074918854</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.600575591849435</v>
+        <v>0.6001639086942542</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7314574161645452</v>
+        <v>0.7236795182284677</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>234</v>
@@ -7665,19 +7665,19 @@
         <v>167211</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>156413</v>
+        <v>155206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178288</v>
+        <v>177421</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7525157425111526</v>
+        <v>0.7525157425111527</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7039176213395872</v>
+        <v>0.6984894566019813</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.802363205852743</v>
+        <v>0.7984631008770139</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>17384</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12288</v>
+        <v>12039</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23130</v>
+        <v>23098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.240496012353232</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1699984154115278</v>
+        <v>0.166551126601426</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3199779891025322</v>
+        <v>0.319537790834417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -7790,19 +7790,19 @@
         <v>28198</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22538</v>
+        <v>22109</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35325</v>
+        <v>34270</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3306499381115346</v>
+        <v>0.3306499381115347</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.264284186895859</v>
+        <v>0.2592516767272978</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4142138657966845</v>
+        <v>0.4018510345678434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -7811,19 +7811,19 @@
         <v>45582</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37564</v>
+        <v>37813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53516</v>
+        <v>53593</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2892910267550291</v>
+        <v>0.2892910267550292</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2384011835426124</v>
+        <v>0.2399799156522207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3396443687955384</v>
+        <v>0.3401307470977473</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>54901</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>49155</v>
+        <v>49187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59997</v>
+        <v>60246</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7595039876467682</v>
+        <v>0.7595039876467681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6800220108974679</v>
+        <v>0.6804622091655835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8300015845884721</v>
+        <v>0.8334488733985744</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>112</v>
@@ -7861,19 +7861,19 @@
         <v>57083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49956</v>
+        <v>51011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62743</v>
+        <v>63172</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6693500618884655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5857861342033152</v>
+        <v>0.5981489654321566</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7357158131041408</v>
+        <v>0.7407483232727021</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>204</v>
@@ -7882,19 +7882,19 @@
         <v>111984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104050</v>
+        <v>103973</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120002</v>
+        <v>119753</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.710708973244971</v>
+        <v>0.7107089732449707</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6603556312044617</v>
+        <v>0.6598692529022528</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7615988164573877</v>
+        <v>0.7600200843477793</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>14642</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9263</v>
+        <v>9275</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20611</v>
+        <v>20787</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1798985926891229</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1138091762027491</v>
+        <v>0.1139521400354653</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2532285323163315</v>
+        <v>0.2553888453005428</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -8007,19 +8007,19 @@
         <v>24748</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19482</v>
+        <v>19617</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30649</v>
+        <v>30618</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2239515602265396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1763028788251607</v>
+        <v>0.1775239920453694</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2773548619705852</v>
+        <v>0.2770750974132367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -8028,19 +8028,19 @@
         <v>39390</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31407</v>
+        <v>31840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47373</v>
+        <v>48073</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2052665076736894</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1636680680987778</v>
+        <v>0.165924113202239</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2468699355048704</v>
+        <v>0.2505154741420282</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>66751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60782</v>
+        <v>60606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72130</v>
+        <v>72118</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8201014073108771</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7467714676836684</v>
+        <v>0.7446111546994569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8861908237972508</v>
+        <v>0.8860478599645347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>198</v>
@@ -8078,19 +8078,19 @@
         <v>85756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79855</v>
+        <v>79886</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91022</v>
+        <v>90887</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7760484397734605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7226451380294149</v>
+        <v>0.722924902586763</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8236971211748394</v>
+        <v>0.8224760079546305</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>291</v>
@@ -8099,19 +8099,19 @@
         <v>152506</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>144523</v>
+        <v>143823</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160489</v>
+        <v>160056</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7947334923263106</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7531300644951296</v>
+        <v>0.7494845258579714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.836331931901222</v>
+        <v>0.834075886797761</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>7677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4615</v>
+        <v>4543</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11424</v>
+        <v>11699</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2103127339878227</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1264401287380415</v>
+        <v>0.1244532018926325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3129470675105835</v>
+        <v>0.3205012741112231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -8224,19 +8224,19 @@
         <v>14904</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11005</v>
+        <v>10791</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19534</v>
+        <v>19416</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2436752097265985</v>
+        <v>0.2436752097265986</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1799237267169162</v>
+        <v>0.1764265513187383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3193757627430824</v>
+        <v>0.3174496193283359</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -8245,19 +8245,19 @@
         <v>22581</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16951</v>
+        <v>17488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28235</v>
+        <v>28030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2312060180236359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1735641855703246</v>
+        <v>0.1790538627116125</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2890945244565205</v>
+        <v>0.286995191055569</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>28826</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25079</v>
+        <v>24804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31888</v>
+        <v>31960</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7896872660121773</v>
+        <v>0.789687266012177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6870529324894163</v>
+        <v>0.6794987258887767</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8735598712619584</v>
+        <v>0.8755467981073675</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -8295,19 +8295,19 @@
         <v>46260</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41630</v>
+        <v>41748</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50159</v>
+        <v>50373</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7563247902734014</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6806242372569175</v>
+        <v>0.6825503806716642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8200762732830837</v>
+        <v>0.8235734486812617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>182</v>
@@ -8316,19 +8316,19 @@
         <v>75086</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69432</v>
+        <v>69637</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>80716</v>
+        <v>80179</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7687939819763641</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7109054755434794</v>
+        <v>0.7130048089444312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8264358144296754</v>
+        <v>0.8209461372883875</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>18837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14398</v>
+        <v>14668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23823</v>
+        <v>23598</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3127859922003819</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.23907058441682</v>
+        <v>0.2435526101824806</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3955672819957363</v>
+        <v>0.3918371348102564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>72</v>
@@ -8441,19 +8441,19 @@
         <v>24487</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19628</v>
+        <v>19743</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29222</v>
+        <v>29459</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3683682015395128</v>
+        <v>0.3683682015395127</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2952693467063092</v>
+        <v>0.2969963716532143</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4396062336824727</v>
+        <v>0.4431595231471124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>116</v>
@@ -8462,19 +8462,19 @@
         <v>43324</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37382</v>
+        <v>36867</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50168</v>
+        <v>49848</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.341948178697246</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2950497830071329</v>
+        <v>0.2909872188792721</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3959640766632613</v>
+        <v>0.3934388086212112</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>41387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>36401</v>
+        <v>36626</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45826</v>
+        <v>45556</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6872140077996182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6044327180042639</v>
+        <v>0.6081628651897438</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7609294155831801</v>
+        <v>0.7564473898175195</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -8512,19 +8512,19 @@
         <v>41987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37252</v>
+        <v>37015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46846</v>
+        <v>46731</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6316317984604872</v>
+        <v>0.6316317984604871</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5603937663175272</v>
+        <v>0.5568404768528874</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7047306532936907</v>
+        <v>0.7030036283467855</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>194</v>
@@ -8533,19 +8533,19 @@
         <v>83374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76530</v>
+        <v>76850</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>89316</v>
+        <v>89831</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6580518213027539</v>
+        <v>0.658051821302754</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6040359233367386</v>
+        <v>0.6065611913787888</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7049502169928672</v>
+        <v>0.709012781120728</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>14601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8386</v>
+        <v>8561</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23208</v>
+        <v>23030</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.09699743095370747</v>
+        <v>0.09699743095370746</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05571169170661357</v>
+        <v>0.05687139934305711</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1541743603690289</v>
+        <v>0.1529942408502148</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -8658,19 +8658,19 @@
         <v>43951</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34909</v>
+        <v>34698</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53985</v>
+        <v>53645</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2698100075338705</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2143013865643865</v>
+        <v>0.2130063706673158</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3314058556569917</v>
+        <v>0.3293175834406528</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -8679,19 +8679,19 @@
         <v>58552</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>46878</v>
+        <v>47400</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70972</v>
+        <v>70891</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1868128912440216</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1495641981038277</v>
+        <v>0.1512313864388414</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.226436934406692</v>
+        <v>0.2261784501749314</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>135930</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>127323</v>
+        <v>127501</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142145</v>
+        <v>141970</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9030025690462927</v>
+        <v>0.9030025690462924</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8458256396309711</v>
+        <v>0.847005759149785</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9442883082933868</v>
+        <v>0.9431286006569429</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>177</v>
@@ -8729,19 +8729,19 @@
         <v>118946</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>108912</v>
+        <v>109252</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>127988</v>
+        <v>128199</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7301899924661296</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.668594144343008</v>
+        <v>0.6706824165593471</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7856986134356132</v>
+        <v>0.7869936293326841</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>329</v>
@@ -8750,19 +8750,19 @@
         <v>254876</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>242456</v>
+        <v>242537</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>266550</v>
+        <v>266028</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8131871087559784</v>
+        <v>0.8131871087559783</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7735630655933077</v>
+        <v>0.7738215498250688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8504358018961721</v>
+        <v>0.8487686135611587</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>13233</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>8802</v>
+        <v>8468</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20006</v>
+        <v>20017</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.08225734789031591</v>
+        <v>0.08225734789031593</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05471378924406909</v>
+        <v>0.05263883531492991</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1243613559208995</v>
+        <v>0.1244273443530566</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -8875,19 +8875,19 @@
         <v>48600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38882</v>
+        <v>39835</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59362</v>
+        <v>59535</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2293958164435293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1835240842312304</v>
+        <v>0.1880222314305716</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2801906138247782</v>
+        <v>0.2810092507780464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>93</v>
@@ -8896,19 +8896,19 @@
         <v>61833</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50178</v>
+        <v>50027</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74224</v>
+        <v>74252</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1658906574039048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1346209768842133</v>
+        <v>0.134214709002958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1991336275896139</v>
+        <v>0.1992086676044486</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>147640</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>140867</v>
+        <v>140856</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152071</v>
+        <v>152405</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9177426521096839</v>
+        <v>0.917742652109684</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8756386440791002</v>
+        <v>0.8755726556469431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.945286210755931</v>
+        <v>0.9473611646850703</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>268</v>
@@ -8946,19 +8946,19 @@
         <v>163262</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>152500</v>
+        <v>152327</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172980</v>
+        <v>172027</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7706041835564706</v>
+        <v>0.7706041835564708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7198093861752219</v>
+        <v>0.7189907492219538</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8164759157687698</v>
+        <v>0.8119777685694286</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>480</v>
@@ -8967,19 +8967,19 @@
         <v>310902</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>298511</v>
+        <v>298483</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>322557</v>
+        <v>322708</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8341093425960951</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8008663724103861</v>
+        <v>0.8007913323955516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8653790231157868</v>
+        <v>0.8657852909970422</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>113539</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>98484</v>
+        <v>98066</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>129229</v>
+        <v>130288</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.159866785369437</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1386692186258262</v>
+        <v>0.1380809580121421</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1819598922822145</v>
+        <v>0.1834510773133514</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>481</v>
@@ -9092,19 +9092,19 @@
         <v>255382</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>234462</v>
+        <v>236168</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>274879</v>
+        <v>277041</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2843205443861945</v>
+        <v>0.2843205443861946</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2610304638982825</v>
+        <v>0.2629294017294213</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3060275747994671</v>
+        <v>0.3084336816427625</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>660</v>
@@ -9113,19 +9113,19 @@
         <v>368920</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>342734</v>
+        <v>343793</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>394992</v>
+        <v>396219</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2293674586049771</v>
+        <v>0.229367458604977</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.213086663534298</v>
+        <v>0.2137453231795672</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2455771734084569</v>
+        <v>0.2463398474749019</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>596668</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>580978</v>
+        <v>579919</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>611723</v>
+        <v>612141</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8401332146305629</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8180401077177856</v>
+        <v>0.8165489226866484</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.861330781374174</v>
+        <v>0.8619190419878578</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1217</v>
@@ -9163,19 +9163,19 @@
         <v>642836</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>623339</v>
+        <v>621177</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>663756</v>
+        <v>662050</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7156794556138053</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.693972425200533</v>
+        <v>0.6915663183572376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7389695361017175</v>
+        <v>0.7370705982705787</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2056</v>
@@ -9184,19 +9184,19 @@
         <v>1239504</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1213432</v>
+        <v>1212205</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1265690</v>
+        <v>1264631</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.770632541395023</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7544228265915431</v>
+        <v>0.7536601525250981</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7869133364657021</v>
+        <v>0.7862546768204329</v>
       </c>
     </row>
     <row r="30">
